--- a/ME345W/Lab10/Lab10_Hw.xlsx
+++ b/ME345W/Lab10/Lab10_Hw.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="37">
   <si>
     <t xml:space="preserve">Comp</t>
   </si>
@@ -58,35 +58,250 @@
     <t xml:space="preserve">NaN</t>
   </si>
   <si>
+    <t xml:space="preserve">Component</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resistance (Ω)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capacitance (F)</t>
+  </si>
+  <si>
     <t xml:space="preserve">R2</t>
   </si>
   <si>
+    <t xml:space="preserve">R1 (33kΩ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N/A</t>
+  </si>
+  <si>
     <t xml:space="preserve">102C1</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">R2 (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">33kΩ)</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">104C2</t>
   </si>
   <si>
+    <t xml:space="preserve">102C1 (1000 pF)</t>
+  </si>
+  <si>
     <t xml:space="preserve">CT102</t>
   </si>
   <si>
+    <t xml:space="preserve">104C2 (0.1 μF)</t>
+  </si>
+  <si>
     <t xml:space="preserve">CT104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CT102 (1000 pF)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CT104 (0.1 μF)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Table 1.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ct</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Measured </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Frequency (Hz)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Vout</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">min </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(V)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Vout</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">max </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(V)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Ct V</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">min </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(V)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Ct V</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">max </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(V)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Expected Frequency (Hz)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1000 pF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1 μF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00E+00"/>
     <numFmt numFmtId="166" formatCode="0.00"/>
+    <numFmt numFmtId="167" formatCode="0"/>
+    <numFmt numFmtId="168" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -103,6 +318,32 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <vertAlign val="subscript"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -112,12 +353,19 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
       <diagonal/>
     </border>
   </borders>
@@ -146,7 +394,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -159,7 +407,39 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -180,15 +460,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H10" activeCellId="0" sqref="H10"/>
+      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2:N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.39"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="5" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="22.92"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="9" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="15.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="0" width="16.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="15" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -254,10 +543,19 @@
       <c r="J2" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="L2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>32360</v>
@@ -286,10 +584,19 @@
       <c r="J3" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="L3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" s="5" t="n">
+        <v>33300</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>11</v>
@@ -318,10 +625,19 @@
       <c r="J4" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="L4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="5" t="n">
+        <v>32360</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>11</v>
@@ -350,10 +666,19 @@
       <c r="J5" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="L5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N5" s="5" t="n">
+        <v>1.13E-009</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>11</v>
@@ -364,30 +689,39 @@
       <c r="D6" s="1" t="n">
         <v>13259</v>
       </c>
-      <c r="E6" s="3" t="n">
+      <c r="E6" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="F6" s="3" t="n">
+      <c r="F6" s="6" t="n">
         <v>3.76</v>
       </c>
-      <c r="G6" s="3" t="n">
+      <c r="G6" s="6" t="n">
         <v>1.52</v>
       </c>
-      <c r="H6" s="3" t="n">
+      <c r="H6" s="6" t="n">
         <v>3.32</v>
       </c>
       <c r="I6" s="1" t="n">
-        <f aca="false">1.44/((B2+2*B3)*C6)</f>
+        <f aca="false">1.44/((B$2+2*B$3)*C$6)</f>
         <v>12886.7363266358</v>
       </c>
       <c r="J6" s="1" t="n">
         <f aca="false">ABS(I6-D6)/I6*100</f>
         <v>2.88873508333335</v>
       </c>
+      <c r="L6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N6" s="5" t="n">
+        <v>1.02E-007</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>11</v>
@@ -398,16 +732,16 @@
       <c r="D7" s="1" t="n">
         <v>140.319</v>
       </c>
-      <c r="E7" s="3" t="n">
+      <c r="E7" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="F7" s="3" t="n">
+      <c r="F7" s="6" t="n">
         <v>3.76</v>
       </c>
-      <c r="G7" s="3" t="n">
+      <c r="G7" s="6" t="n">
         <v>1.6</v>
       </c>
-      <c r="H7" s="3" t="n">
+      <c r="H7" s="6" t="n">
         <v>3.36</v>
       </c>
       <c r="I7" s="1" t="n">
@@ -416,8 +750,159 @@
       </c>
       <c r="J7" s="1" t="n">
         <f aca="false">ABS(I7-D7)/I7*100</f>
-        <v>0.290081937499975</v>
-      </c>
+        <v>0.290081937499996</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N7" s="5" t="n">
+        <v>1.14E-009</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N8" s="5" t="n">
+        <v>1.05E-007</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="4" t="n">
+        <v>13259</v>
+      </c>
+      <c r="D14" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="9" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="F14" s="9" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="G14" s="9" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="H14" s="10" t="n">
+        <f aca="false">1.44/((B$2+2*B$3)*C$6)</f>
+        <v>12886.7363266358</v>
+      </c>
+      <c r="I14" s="11" t="n">
+        <f aca="false">ABS(H14-C14)/H14*100</f>
+        <v>2.88873508333335</v>
+      </c>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="4" t="n">
+        <v>140.319</v>
+      </c>
+      <c r="D15" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="9" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="F15" s="9" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="G15" s="9" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="H15" s="11" t="n">
+        <f aca="false">1.44/((B$2+2*B$3)*C$7)</f>
+        <v>139.913137260617</v>
+      </c>
+      <c r="I15" s="11" t="n">
+        <f aca="false">ABS(H15-C15)/H15*100</f>
+        <v>0.290081937499996</v>
+      </c>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="4"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="4"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="5"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="5"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
